--- a/biology/Botanique/Coccocypselum/Coccocypselum.xlsx
+++ b/biology/Botanique/Coccocypselum/Coccocypselum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccocypselum est un genre néotropical d'herbacée, appartenant à la famille des Rubiaceae, comportant entre 31 et 81 espèces, et dont l'espèce type est Coccocypselum repens Sw..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Coccocypselum regroupe des herbacées annuelles ou pérennes, terrestres, non armées. Les tiges sont prostrées, rampantes, décombantes ou dressées-ascendantes. 
 Les feuilles sont opposées, pétiolées, membraneuses à charnues, parfois pourpres ou bleu-lavande sur la face inférieure, avec la nervation non linéolée.
@@ -525,7 +539,7 @@
 L'ovaire est à 2 loges, contenant chacune de nombreux ovules, avec placentation axile. 
 Les fruit sont des baie, ovoïdes ou globuleuses, spongieuses et souvent creuses, bleus ou violets, souvent très colorés. 
 Les graines sont minuscules, orbiculaires, subanguleuses ou plan-convexes, avec un testa granuleux.
-Les Coccocypselum sont souvent reconnaissables à leurs fruits d'un bleu vif profond, à la texture plutôt sèche et creuse[2].
+Les Coccocypselum sont souvent reconnaissables à leurs fruits d'un bleu vif profond, à la texture plutôt sèche et creuse.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Coccocypselum du Mexique au Paraguay en passant par l'Amérique centrale, les Antilles, la Colombie, le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Bolivie, et le Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Coccocypselum du Mexique au Paraguay en passant par l'Amérique centrale, les Antilles, la Colombie, le Venezuela, Trinidad et Tobago, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, le Bolivie, et le Brésil.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 avril 2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 avril 2024) :
 Coccocypselum anomalum K.Schum.
 Coccocypselum aureum (Spreng.) Cham. &amp; Schltdl.
 Coccocypselum bahiense C.B.Costa
@@ -619,7 +637,7 @@
 Coccocypselum pumilio Standl., 1931
 Coccocypselum rotundifolium Glaz.
 Condalia obovata Ruiz &amp; Pav.
-Selon Tropicos                                           (30 avril 2024)[3] :
+Selon Tropicos                                           (30 avril 2024) :
 Coccocypselum anomalum K. Schum., 1889
 Coccocypselum apurense Steyerm., 1987
 Coccocypselum aureum (Spreng.) Cham. &amp; Schltdl., 1829
@@ -630,7 +648,7 @@
 Coccocypselum brittonii Rusby, 1907
 Coccocypselum brownei (Sw.) Desv. ex Ham., 1825
 Coccocypselum brownwei Desv. ex Ham., 1825
-Coccocypselum buxifolium (Lam.) Spreng., 1825 [1824]
+Coccocypselum buxifolium (Lam.) Spreng., 1825 
 Coccocypselum campanuliflorum (Hook.) Cham. &amp; Schltdl., 1829
 Coccocypselum canescens Willd. ex Roem. &amp; Schult., 1827
 Coccocypselum canescens Willd. ex Cham. &amp; Schltdl., 1829
@@ -680,8 +698,8 @@
 Coccocypselum ovatum Cham. &amp; Schltdl., 1829
 Coccocypselum pedunculare Cham. &amp; Schltdl., 1829
 Coccocypselum pleuropodum (Donn. Sm.) Standl., 1929
-Coccocypselum pseudotonanea Griseb., 1864 [1861]
-Coccocypselum pseudotontanea Griseb., 1864 [1861]
+Coccocypselum pseudotonanea Griseb., 1864 
+Coccocypselum pseudotontanea Griseb., 1864 
 Coccocypselum pulchellum Cham., 1834
 Coccocypselum pumilo Standl., 1931
 Coccocypselum reitzii L.B. Sm. &amp; Downs, 1956
@@ -700,7 +718,7 @@
 Coccocypselum uniflorum Hassl., 1915
 Coccocypselum veronicoides C. Presl, 1844
 Coccocypselum violaceum Desf., 1829
-Coccocypselum virgatum Lam., 1791 [1792]
+Coccocypselum virgatum Lam., 1791 
 </t>
         </is>
       </c>
